--- a/RCaN/inst/extdata/CaN_template_mini_generic.xlsx
+++ b/RCaN/inst/extdata/CaN_template_mini_generic.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Dynamics" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Fluxes!$A$1:$D$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Fluxes!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t xml:space="preserve">Template for input data to CaN generic models</t>
   </si>
@@ -129,45 +129,6 @@
     <t xml:space="preserve">F08</t>
   </si>
   <si>
-    <t xml:space="preserve">OZoo2Fishery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PelF2Fishery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PelF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DemF2Fishery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DemF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM2Fishery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImportHZoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hzoo_out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hzoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImportOZoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozoo_out</t>
-  </si>
-  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -216,7 +177,7 @@
     <t xml:space="preserve">RefugeBiomassHzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">Hzoo&gt;=166.08</t>
+    <t xml:space="preserve">HerbZooplankton &gt;=166.08</t>
   </si>
   <si>
     <t xml:space="preserve">1988:2013</t>
@@ -228,7 +189,7 @@
     <t xml:space="preserve">RefugeBiomassOzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozoo&gt;=168.64</t>
+    <t xml:space="preserve">OmniZooplankton &gt;=168.64</t>
   </si>
   <si>
     <t xml:space="preserve">SatiationHzoo</t>
@@ -246,25 +207,25 @@
     <t xml:space="preserve">InertiaMHzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">RatioHzoo&gt;=exp(-7.6)</t>
+    <t xml:space="preserve">RatioHerbZooplankton &gt;=exp(-7.6)</t>
   </si>
   <si>
     <t xml:space="preserve">InertiaMOzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">RatioOzoo&gt;=exp(-3.1)</t>
+    <t xml:space="preserve">RatioOmniZooplankton &gt;=exp(-3.1)</t>
   </si>
   <si>
     <t xml:space="preserve">InertiaPHzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">RatioHzoo&lt;=exp(7.6)</t>
+    <t xml:space="preserve">RatioHerbZooplankton &lt;=exp(7.6)</t>
   </si>
   <si>
     <t xml:space="preserve">InertiaPOzoo</t>
   </si>
   <si>
-    <t xml:space="preserve">RatioOzoo&lt;=exp(3.1)</t>
+    <t xml:space="preserve">RatioOmniZooplankton&lt;=exp(3.1)</t>
   </si>
   <si>
     <t xml:space="preserve">Year</t>
@@ -603,7 +564,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100"/>
@@ -786,10 +747,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -877,15 +838,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="207" zoomScaleNormal="207" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.33"/>
@@ -966,96 +927,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1074,13 +980,13 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="103"/>
@@ -1089,206 +995,206 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1385,43 +1291,43 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -1801,38 +1707,38 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/RCaN/inst/extdata/CaN_template_mini_generic.xlsx
+++ b/RCaN/inst/extdata/CaN_template_mini_generic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
@@ -290,13 +290,13 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-sum</t>
+      <t xml:space="preserve">-(1-exp(-OtherLosses))/OtherLosses*sum</t>
     </r>
     <r>
       <rPr>
@@ -311,7 +311,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -385,6 +385,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -444,7 +451,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -479,6 +486,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -564,7 +575,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100"/>
@@ -750,7 +761,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -846,7 +857,7 @@
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.33"/>
@@ -980,13 +991,13 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="164" zoomScaleNormal="164" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="103"/>
@@ -1703,11 +1714,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -1733,11 +1744,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="9" t="s">
         <v>86</v>
       </c>
     </row>
